--- a/data/usercase.xlsx
+++ b/data/usercase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoou/PycharmProjects/httptest-excel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoou/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A21C6-AD73-9A46-9C14-2683CE0E505E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C6E4B-862F-E041-BDB3-E69C09E2399C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>案例编号</t>
   </si>
@@ -79,34 +79,39 @@
     <t>{"Accept": "application/json, text/javascript, */*; q=0.01", "Accept-Encoding": "gzip, deflate, br", "Accept-Language": "zh-CN,zh;q=0.9", "Connection": "keep-alive", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.116 Safari/537.36", "cookies": "aliyungf_tc=AQAAANNdlkvZ2QYAIb2Q221oiyiSOfhg; tlsysSessionId=cf0a8657-4a02-4a40-8530-ca54889da838; isJump=true; deviceId=27763EA6-04F9-4269-A2D5-59BA0FB1F154; 6e12c6a9-fda1-41b3-82ec-cc496762788d=webim-visitor-69CJM3RYGHMP79F7XV2M; loginUserName=18291900215", "X-Requested-With": "XMLHttpRequest"}</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>[\d]{16}</t>
+  </si>
+  <si>
+    <t>"result":"success"</t>
+  </si>
+  <si>
+    <t>test_002</t>
+  </si>
+  <si>
+    <t>登录验证</t>
+  </si>
+  <si>
+    <t>/loginSuccess/</t>
+  </si>
+  <si>
+    <t>{"data": {"userId": "{{data}}"}}</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"data": {"loginName": 18291900215, "password": "dd636482aca022", "code": null, "description": "encrypt"}}</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>[\d]{16}</t>
-  </si>
-  <si>
-    <t>"result":"success"</t>
-  </si>
-  <si>
-    <t>test_002</t>
-  </si>
-  <si>
-    <t>登录验证</t>
-  </si>
-  <si>
-    <t>/loginSuccess/</t>
-  </si>
-  <si>
-    <t>{"data": {"userId": "{{data}}"}}</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,11 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="52" customHeight="1"/>
@@ -514,11 +519,13 @@
     <col min="8" max="8" width="14.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52" customHeight="1">
+    <row r="1" spans="1:14" ht="52" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +565,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="52" customHeight="1">
+    <row r="2" spans="1:14" ht="52" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -579,47 +589,47 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="52" customHeight="1">
+    <row r="3" spans="1:14" ht="52" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="10"/>

--- a/data/usercase.xlsx
+++ b/data/usercase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoou/PycharmProjects/httptest-excel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C6E4B-862F-E041-BDB3-E69C09E2399C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD36061-8B8D-D647-9AED-1D4CD726EC61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>/weakPwdLogin/?from=web_login</t>
   </si>
   <si>
-    <t>{"Accept": "application/json, text/javascript, */*; q=0.01", "Accept-Encoding": "gzip, deflate, br", "Accept-Language": "zh-CN,zh;q=0.9", "Connection": "keep-alive", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.116 Safari/537.36", "cookies": "aliyungf_tc=AQAAANNdlkvZ2QYAIb2Q221oiyiSOfhg; tlsysSessionId=cf0a8657-4a02-4a40-8530-ca54889da838; isJump=true; deviceId=27763EA6-04F9-4269-A2D5-59BA0FB1F154; 6e12c6a9-fda1-41b3-82ec-cc496762788d=webim-visitor-69CJM3RYGHMP79F7XV2M; loginUserName=18291900215", "X-Requested-With": "XMLHttpRequest"}</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -112,6 +109,24 @@
   </si>
   <si>
     <t>响应结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host: www.zhixue.com
+Connection: keep-alive
+Content-Length: 71
+Accept: application/json, text/javascript, */*; q=0.01
+X-Requested-With: XMLHttpRequest
+User-Agent: Mozilla/5.0 (Macintosh; Intel Mac OS X 10_14_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.105 Safari/537.36
+Content-Type: application/x-www-form-urlencoded; charset=UTF-8
+Origin: https://www.zhixue.com
+Sec-Fetch-Site: same-origin
+Sec-Fetch-Mode: cors
+Sec-Fetch-Dest: empty
+Referer: https://www.zhixue.com/login.html
+Accept-Encoding: gzip, deflate, br
+Accept-Language: zh-CN,zh;q=0.9
+Cookie: deviceId=27763EA6-04F9-4269-A2D5-59BA0FB1F154; 6e12c6a9-fda1-41b3-82ec-cc496762788d=webim-visitor-69CJM3RYGHMP79F7XV2M; loginUserName=18291900215; SSO_CUSTOM_LOGOUT_URL="https://www.zhixue.com/login.html#p1"; aliyungf_tc=AQAAANcGiW993QwA3t1VAbKIOWuy4rrC; tlsysSessionId=9531ac05-3a0f-469f-b61a-8cc3f26ff60c; isJump=true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="52" customHeight="1"/>
@@ -566,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="52" customHeight="1">
@@ -586,50 +601,50 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="52" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="10"/>
